--- a/biology/Botanique/Mapania/Mapania.xlsx
+++ b/biology/Botanique/Mapania/Mapania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mapania est un genre de plantes de la famille des Cyperaceae et dont l'espèce-type est Mapania sylvatica  Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MAPANIA. (Tabula 17.) 
 Involucrum. monophyllum, trifoliatum ; foliolis ampliſſimis, ovatis, acutis, glabris, integerrimis, ſtriatis ; nervis longitudinalibus.
 CAL. Perianthium hexaphyllum, foliis oblongis, ovatis, dentatis, acutis, concavis, imbricatis.
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,9 +592,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (22 octobre 2017)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (22 octobre 2017) :
 Mapania africana Boeckeler
 Mapania amplivaginata K.Schum.
 Mapania angustifolia Uittien
@@ -664,10 +682,10 @@
 Mapania vitiensis (Uittien) T.Koyama
 Mapania wallichii C.B.Clarke
 Mapania zeylanica (Thwaites) Trimen
-Selon ITIS      (22 octobre 2017)[4] :
+Selon ITIS      (22 octobre 2017) :
 Mapania macrocephala K. Schum ex Warb
 Mapania sumatrana (Miq.) Benth.
-Selon NCBI  (22 octobre 2017)[5] :
+Selon NCBI  (22 octobre 2017) :
 Mapania assimilis
 Mapania bancana
 Mapania cuspidata
@@ -680,7 +698,7 @@
 Mapania palustris
 Mapania paradoxa
 Mapania tenuiscapa
-Selon The Plant List            (22 octobre 2017)[6] :
+Selon The Plant List            (22 octobre 2017) :
 Mapania africana Boeckeler
 Mapania amplivaginata K.Schum.
 Mapania angustifolia Uittien
@@ -767,7 +785,7 @@
 Mapania wallichiana C.B. Clarke
 Mapania wallichii C.B.Clarke
 Mapania zeylanica (Thwaites) Trimen
-Selon Tropicos                                           (22 octobre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Mapania affinis Merr.
 Mapania africana Boeckeler
 Mapania afro-orientalis Lye
